--- a/data/input/employee_absence_data_14.xlsx
+++ b/data/input/employee_absence_data_14.xlsx
@@ -464,45 +464,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>946</v>
+        <v>21973</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dr. Diogo Mendes</t>
+          <t>Hadassa Vieira</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45083</v>
+        <v>45104</v>
       </c>
       <c r="G2" t="n">
-        <v>10008.85</v>
+        <v>3106.61</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>97305</v>
+        <v>45472</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>José Moura</t>
+          <t>Dom Nascimento</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -511,109 +511,109 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45090</v>
+        <v>45084</v>
       </c>
       <c r="G3" t="n">
-        <v>7413.29</v>
+        <v>3759.98</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>52961</v>
+        <v>91486</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Clarice da Rosa</t>
+          <t>Rael Guerra</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45092</v>
+        <v>45103</v>
       </c>
       <c r="G4" t="n">
-        <v>8613.040000000001</v>
+        <v>3941.37</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>49047</v>
+        <v>26843</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Raquel Costa</t>
+          <t>Enzo Dias</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45095</v>
+        <v>45097</v>
       </c>
       <c r="G5" t="n">
-        <v>8367.51</v>
+        <v>4454.95</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3298</v>
+        <v>45551</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ana Sophia Gonçalves</t>
+          <t>Sra. Cecília Novaes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>45084</v>
       </c>
       <c r="G6" t="n">
-        <v>11980.9</v>
+        <v>3964.51</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>55234</v>
+        <v>69038</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sra. Luísa Santos</t>
+          <t>Samuel Barbosa</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -623,84 +623,84 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45090</v>
+        <v>45081</v>
       </c>
       <c r="G7" t="n">
-        <v>5104.93</v>
+        <v>6895.21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>12406</v>
+        <v>34882</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Eloah Albuquerque</t>
+          <t>Yuri da Paz</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45079</v>
+        <v>45099</v>
       </c>
       <c r="G8" t="n">
-        <v>12166.78</v>
+        <v>6186.1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>32312</v>
+        <v>98795</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sra. Letícia Campos</t>
+          <t>Joana Fonseca</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45106</v>
+        <v>45104</v>
       </c>
       <c r="G9" t="n">
-        <v>3711.6</v>
+        <v>5313.39</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>73735</v>
+        <v>40032</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ana Clara Costa</t>
+          <t>Rafaela Pinto</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -710,46 +710,46 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45084</v>
+        <v>45091</v>
       </c>
       <c r="G10" t="n">
-        <v>4140.9</v>
+        <v>8694.74</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>26875</v>
+        <v>14655</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sr. Arthur Mendonça</t>
+          <t>Aurora Marques</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45086</v>
+        <v>45100</v>
       </c>
       <c r="G11" t="n">
-        <v>7946.97</v>
+        <v>6353.67</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/employee_absence_data_14.xlsx
+++ b/data/input/employee_absence_data_14.xlsx
@@ -464,11 +464,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>21973</v>
+        <v>33672</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hadassa Vieira</t>
+          <t>Maria Luísa Azevedo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -478,205 +478,205 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45104</v>
+        <v>45096</v>
       </c>
       <c r="G2" t="n">
-        <v>3106.61</v>
+        <v>5096.6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>45472</v>
+        <v>39724</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dom Nascimento</t>
+          <t>Dra. Maria Helena Fogaça</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45084</v>
+        <v>45101</v>
       </c>
       <c r="G3" t="n">
-        <v>3759.98</v>
+        <v>6967.85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>91486</v>
+        <v>41566</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rael Guerra</t>
+          <t>Daniel Moraes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45103</v>
+        <v>45104</v>
       </c>
       <c r="G4" t="n">
-        <v>3941.37</v>
+        <v>5924.76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>26843</v>
+        <v>46584</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Enzo Dias</t>
+          <t>Dom Leão</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>4</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45097</v>
+        <v>45082</v>
       </c>
       <c r="G5" t="n">
-        <v>4454.95</v>
+        <v>9149.139999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>45551</v>
+        <v>3437</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sra. Cecília Novaes</t>
+          <t>Lavínia Ramos</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45084</v>
+        <v>45088</v>
       </c>
       <c r="G6" t="n">
-        <v>3964.51</v>
+        <v>9181.6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>69038</v>
+        <v>44811</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Samuel Barbosa</t>
+          <t>Maria Flor Lima</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45081</v>
+        <v>45096</v>
       </c>
       <c r="G7" t="n">
-        <v>6895.21</v>
+        <v>7749.52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>34882</v>
+        <v>10653</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Yuri da Paz</t>
+          <t>Srta. Lorena Mendes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45099</v>
+        <v>45087</v>
       </c>
       <c r="G8" t="n">
-        <v>6186.1</v>
+        <v>8928.18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>98795</v>
+        <v>62258</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Joana Fonseca</t>
+          <t>Carlos Eduardo Campos</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -685,51 +685,51 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45104</v>
+        <v>45105</v>
       </c>
       <c r="G9" t="n">
-        <v>5313.39</v>
+        <v>8445.75</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>40032</v>
+        <v>6761</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Rafaela Pinto</t>
+          <t>Dr. Cauê Oliveira</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>5</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45091</v>
+        <v>45099</v>
       </c>
       <c r="G10" t="n">
-        <v>8694.74</v>
+        <v>5006.39</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>14655</v>
+        <v>393</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Aurora Marques</t>
+          <t>Ana Lívia da Mata</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -739,17 +739,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45100</v>
+        <v>45089</v>
       </c>
       <c r="G11" t="n">
-        <v>6353.67</v>
+        <v>8990.379999999999</v>
       </c>
     </row>
   </sheetData>
